--- a/data/trans_camb/P1432-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1432-Edad-trans_camb.xlsx
@@ -637,16 +637,16 @@
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>-0.9794687278821863</v>
+        <v>-0.9852964117914312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9843751469587294</v>
+        <v>-0.9881442924156478</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4787833239671428</v>
+        <v>-0.5411121870557232</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.529994661814558</v>
+        <v>-0.4773008033836669</v>
       </c>
     </row>
     <row r="6">
@@ -759,22 +759,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7232073600481894</v>
+        <v>-0.6815902708830017</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8124082917434563</v>
+        <v>-0.7709344652815158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8710491854428992</v>
+        <v>-0.7793003276373414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9719716026549129</v>
+        <v>-0.9114379783384885</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6077067485483716</v>
+        <v>-0.5758861709774933</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6481642355243894</v>
+        <v>-0.5736043568560236</v>
       </c>
     </row>
     <row r="12">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8142081930260845</v>
+        <v>-0.6649566330562711</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9881084514750113</v>
+        <v>-0.9910195883873811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.596112965993561</v>
+        <v>-0.6106496185319437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4201008289940337</v>
+        <v>-0.4406421669748486</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.4647240707026449</v>
+        <v>-0.4569390197080352</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5108465914340592</v>
+        <v>-0.540889468692477</v>
       </c>
     </row>
     <row r="18">
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4551393531384553</v>
+        <v>0.5914448696226974</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5283179214886035</v>
+        <v>0.5098566898713628</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8804818793877461</v>
+        <v>0.7613666764926557</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4094496606395063</v>
+        <v>0.3428575291362787</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2890351857556386</v>
+        <v>0.218138971735014</v>
       </c>
     </row>
     <row r="19">
@@ -976,8 +976,12 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
+        <v>-0.8814626235946642</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -990,8 +994,12 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
-      <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="n">
+        <v>3.745251863122767</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2.996207182257873</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1031,22 +1039,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7260735439806361</v>
+        <v>-0.7206194744990879</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9180102750182085</v>
+        <v>-1.047659898368905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.324383353013789</v>
+        <v>-1.273909403804325</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.201511955085252</v>
+        <v>-1.393627623512503</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8194267360821402</v>
+        <v>-0.7602611262440842</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8036641515121146</v>
+        <v>-0.7610799026805863</v>
       </c>
     </row>
     <row r="24">
@@ -1057,22 +1065,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6531746461100071</v>
+        <v>0.650797341408926</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2640889249403576</v>
+        <v>0.2612701062874192</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6156274693704068</v>
+        <v>0.5982698443499307</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7186812034881768</v>
+        <v>0.642679608924911</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3727516337296913</v>
+        <v>0.4041570549064469</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.378349102877556</v>
+        <v>0.3518736587929802</v>
       </c>
     </row>
     <row r="25">
@@ -1110,15 +1118,17 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.858520627397666</v>
+        <v>-0.8442071468989802</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8247731732943728</v>
+        <v>-0.831815596062695</v>
       </c>
     </row>
     <row r="27">
@@ -1130,15 +1140,17 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="n">
+        <v>6.156067279859297</v>
+      </c>
       <c r="F27" s="6" t="n">
-        <v>3.214922323783986</v>
+        <v>2.528335214828188</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.686924160185974</v>
+        <v>1.984444712192229</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.119617181677913</v>
+        <v>1.798782764548382</v>
       </c>
     </row>
     <row r="28">
@@ -1179,22 +1191,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.894676490194344</v>
+        <v>-2.067089399097121</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.308554075386903</v>
+        <v>-2.305522601508373</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.177523404033665</v>
+        <v>-2.245647089047498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.432924715217873</v>
+        <v>-2.716213592422102</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.530894267053294</v>
+        <v>-1.58019463643803</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.969429397617465</v>
+        <v>-1.823526000529174</v>
       </c>
     </row>
     <row r="30">
@@ -1205,22 +1217,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5122095246303253</v>
+        <v>0.4746327632266548</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01765607451970911</v>
+        <v>3.873125605117353e-05</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.805645457651224</v>
+        <v>1.749941437280076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.44522338047943</v>
+        <v>1.317155909728843</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8165713101565689</v>
+        <v>0.7785711992571621</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3537396447458236</v>
+        <v>0.4728129566411456</v>
       </c>
     </row>
     <row r="31">
@@ -1256,23 +1268,19 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C32" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.6560431371780187</v>
+        <v>-0.6710272097330567</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.765346113697146</v>
+        <v>-0.7471295025296186</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6413858777078881</v>
+        <v>-0.6562730577202348</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7759334362936213</v>
+        <v>-0.7455802805263703</v>
       </c>
     </row>
     <row r="33">
@@ -1282,21 +1290,19 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C33" s="6" t="n">
-        <v>2.422451685708872</v>
-      </c>
+      <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>1.479387876288192</v>
+        <v>1.454499330226191</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.363777373406813</v>
+        <v>1.282414094603604</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8104950800431062</v>
+        <v>0.7641151363450772</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5011666681304121</v>
+        <v>0.5567410795866705</v>
       </c>
     </row>
     <row r="34">
@@ -1337,22 +1343,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.108592944538838</v>
+        <v>-2.929804609040692</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.678915358244942</v>
+        <v>-5.804446602350128</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.305749569272404</v>
+        <v>-3.352824174277565</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.620854929500251</v>
+        <v>-3.532382027304763</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.380820141016002</v>
+        <v>-2.351389733173149</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.691924527295333</v>
+        <v>-3.690333702580297</v>
       </c>
     </row>
     <row r="36">
@@ -1363,22 +1369,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.710827757306318</v>
+        <v>3.554210762341758</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.960309434709971</v>
+        <v>-0.6847459294411916</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.866006976430152</v>
+        <v>2.006968936598642</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.288209509637134</v>
+        <v>1.423162809415994</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.859314158813547</v>
+        <v>2.116664047853117</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.2769894121450744</v>
+        <v>-0.2340564782702534</v>
       </c>
     </row>
     <row r="37">
@@ -1415,22 +1421,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6111343713414303</v>
+        <v>-0.6131942775769181</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9683628115957756</v>
+        <v>-0.9538663244979931</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7075803355002926</v>
+        <v>-0.7237415856927725</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.7227553892207562</v>
+        <v>-0.731794339337722</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.553110251490545</v>
+        <v>-0.5172737729501798</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7924932480885709</v>
+        <v>-0.791955350225279</v>
       </c>
     </row>
     <row r="39">
@@ -1441,22 +1447,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.653332263840728</v>
+        <v>1.74888313902801</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.2155343030233595</v>
+        <v>-0.03179542020332143</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8166694860206464</v>
+        <v>1.119677004027001</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7452451658111305</v>
+        <v>0.8577266965444518</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7327776130790326</v>
+        <v>0.8754074925818199</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.03880831554851813</v>
+        <v>-0.05440480547092425</v>
       </c>
     </row>
     <row r="40">
@@ -1497,22 +1503,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.773130054326638</v>
+        <v>-9.707300669747324</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.16412074207348</v>
+        <v>-7.127123486230985</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.089383949683917</v>
+        <v>-2.443833826388807</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.001759521352883</v>
+        <v>-3.80268182074736</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.97453987929635</v>
+        <v>-3.874515502508241</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.847988126757273</v>
+        <v>-4.153914145100435</v>
       </c>
     </row>
     <row r="42">
@@ -1523,22 +1529,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.656658249674696</v>
+        <v>-1.901708434609592</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.606204929890725</v>
+        <v>1.307298436922383</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.176508114346178</v>
+        <v>6.497558980292539</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.368617552904577</v>
+        <v>4.037605591789953</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.193044626758994</v>
+        <v>2.260162541149349</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.171138870256005</v>
+        <v>1.68943083518103</v>
       </c>
     </row>
     <row r="43">
@@ -1575,22 +1581,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.9114880570911691</v>
+        <v>-0.9256741973152117</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7199735983753481</v>
+        <v>-0.7093056969523168</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2569749538259274</v>
+        <v>-0.3144343784473571</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4691499988707513</v>
+        <v>-0.4514724040748023</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4693964438302742</v>
+        <v>-0.4580148085826368</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4605057338003358</v>
+        <v>-0.4895585012379328</v>
       </c>
     </row>
     <row r="45">
@@ -1601,22 +1607,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1993266802400719</v>
+        <v>-0.2479757081915749</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3498608031389255</v>
+        <v>0.2885512092020611</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.375832207498818</v>
+        <v>1.415928987380991</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.044162732412958</v>
+        <v>0.9095224277381829</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4581854573318799</v>
+        <v>0.4419632294497793</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4414785434392062</v>
+        <v>0.3006054426735918</v>
       </c>
     </row>
     <row r="46">
@@ -1657,22 +1663,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.8842974779698892</v>
+        <v>-0.8904879188947792</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.9781676946325941</v>
+        <v>-1.012757001129152</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.4688345760969417</v>
+        <v>-0.4513514028322703</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.7420225441467622</v>
+        <v>-0.588114278740597</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5249777430663999</v>
+        <v>-0.5535025308388324</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.6765766418896479</v>
+        <v>-0.675661541929751</v>
       </c>
     </row>
     <row r="48">
@@ -1683,22 +1689,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.05830150004008472</v>
+        <v>0.06214236067024184</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.1621307984279559</v>
+        <v>-0.1315764022548725</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.7033453993444768</v>
+        <v>0.7256985242853583</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.5219053311891698</v>
+        <v>0.6229321361240968</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.2317481105988469</v>
+        <v>0.2790666476641593</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.06895911278590609</v>
+        <v>0.06275537682703085</v>
       </c>
     </row>
     <row r="49">
@@ -1735,22 +1741,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6733681301722928</v>
+        <v>-0.6652076829424903</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7181700707011812</v>
+        <v>-0.7434427369899415</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2766475024062953</v>
+        <v>-0.2562481835697287</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3887841778148542</v>
+        <v>-0.34057850651749</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3561272958655804</v>
+        <v>-0.3643939931971383</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4555204210587805</v>
+        <v>-0.4468391909106574</v>
       </c>
     </row>
     <row r="51">
@@ -1761,22 +1767,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.06971349823550811</v>
+        <v>0.07657470016676028</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1608697872713786</v>
+        <v>-0.09343361631681237</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5557067224116814</v>
+        <v>0.6097528217197348</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4415078487349819</v>
+        <v>0.5594049253589474</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2078014195790539</v>
+        <v>0.2530239110894726</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.0669254317932548</v>
+        <v>0.08112935757789408</v>
       </c>
     </row>
     <row r="52">
